--- a/data-raw/metadata_template/project-metadata.xlsx
+++ b/data-raw/metadata_template/project-metadata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Downloads/metadata template/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liz/Documents/code/CVPIA/EMLaide/data-raw/metadata_template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C65B6D1-F120-C24B-9F61-6C154BA6B93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F8255D1-0AAC-8D4A-8871-FE71A2417AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="25520" windowHeight="15280" tabRatio="834" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17200" tabRatio="834" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dataset" sheetId="13" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -633,7 +633,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,7 +643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC88997-D746-4692-9A7F-1A0E218D4835}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -950,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -995,7 +995,7 @@
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" errorStyle="information" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Please check default funding values from dropdown menu before manually adding funding information _x000a_" sqref="A1:A1048576" xr:uid="{09457D04-CED0-4649-993D-4FF3340F0594}">
-      <formula1>"USBR, CDWR, CDFW"</formula1>
+      <formula1>"USBR, CDWR, CDFW, USFWS"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
